--- a/docs/collections/shizen/metadata/data.xlsx
+++ b/docs/collections/shizen/metadata/data.xlsx
@@ -66,6 +66,198 @@
  さらに、近年になって稿本の表紙の中から発見された草稿類が、残巻として稿本の一部に収められています。なお、現存する稿本「自然真営道」は、東京大学のほかに慶応義塾大学図書館に三巻三冊(三十五巻~三十七巻)があります。</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/4bdb27bb-a217-4ed4-8710-3c01c007b26c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/97e28457-a2b7-40ec-87d0-f976de8fe10a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/9cbddbf1-73e1-4d14-a5be-236efa6784e0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/25825360-d6e9-4b5a-8d29-8229e6fb7848</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/8cde7a41-3043-4bb8-a9ab-d89a63d74302</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/2c0edd09-f4f7-400a-9aa9-506f6a020281</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/1a8618bf-1552-41a1-ac31-14b55adaa85d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/29a3ebd1-f59b-46d8-8bfe-5e5ab04fddd9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/cd7d22a0-dde1-4372-bf51-2aede101d8ea</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/da743702-fefc-41a8-a5e7-f6e737303f49</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/23f8bc9f-7395-4561-bb43-b660eec7391c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/e2b05760-42c2-4677-ba94-df95d960c42a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/7024d39c-59dd-40e4-b47a-b8956348d240</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71951/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71952/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71953/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71954/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71955/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71956/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71957/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71958/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71959/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71960/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71961/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71962/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71963/manifest</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>4bdb27bb-a217-4ed4-8710-3c01c007b26c</t>
+  </si>
+  <si>
+    <t>97e28457-a2b7-40ec-87d0-f976de8fe10a</t>
+  </si>
+  <si>
+    <t>9cbddbf1-73e1-4d14-a5be-236efa6784e0</t>
+  </si>
+  <si>
+    <t>25825360-d6e9-4b5a-8d29-8229e6fb7848</t>
+  </si>
+  <si>
+    <t>8cde7a41-3043-4bb8-a9ab-d89a63d74302</t>
+  </si>
+  <si>
+    <t>2c0edd09-f4f7-400a-9aa9-506f6a020281</t>
+  </si>
+  <si>
+    <t>1a8618bf-1552-41a1-ac31-14b55adaa85d</t>
+  </si>
+  <si>
+    <t>29a3ebd1-f59b-46d8-8bfe-5e5ab04fddd9</t>
+  </si>
+  <si>
+    <t>cd7d22a0-dde1-4372-bf51-2aede101d8ea</t>
+  </si>
+  <si>
+    <t>da743702-fefc-41a8-a5e7-f6e737303f49</t>
+  </si>
+  <si>
+    <t>23f8bc9f-7395-4561-bb43-b660eec7391c</t>
+  </si>
+  <si>
+    <t>e2b05760-42c2-4677-ba94-df95d960c42a</t>
+  </si>
+  <si>
+    <t>7024d39c-59dd-40e4-b47a-b8956348d240</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>稿本「自然真営道」</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71951</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71952</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71953</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71954</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71955</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71956</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71957</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71958</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71959</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71960</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71961</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71962</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71963</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
@@ -108,208 +300,16 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/72092/full/200,151/0/default.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71951/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71952/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71953/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71954/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71955/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71956/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71957/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71958/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71959/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71960/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71961/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71962/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/71963/manifest</t>
-  </si>
-  <si>
-    <t>ソート用</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>稿本「自然真営道」</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>4bdb27bb-a217-4ed4-8710-3c01c007b26c</t>
-  </si>
-  <si>
-    <t>97e28457-a2b7-40ec-87d0-f976de8fe10a</t>
-  </si>
-  <si>
-    <t>9cbddbf1-73e1-4d14-a5be-236efa6784e0</t>
-  </si>
-  <si>
-    <t>25825360-d6e9-4b5a-8d29-8229e6fb7848</t>
-  </si>
-  <si>
-    <t>8cde7a41-3043-4bb8-a9ab-d89a63d74302</t>
-  </si>
-  <si>
-    <t>2c0edd09-f4f7-400a-9aa9-506f6a020281</t>
-  </si>
-  <si>
-    <t>1a8618bf-1552-41a1-ac31-14b55adaa85d</t>
-  </si>
-  <si>
-    <t>29a3ebd1-f59b-46d8-8bfe-5e5ab04fddd9</t>
-  </si>
-  <si>
-    <t>cd7d22a0-dde1-4372-bf51-2aede101d8ea</t>
-  </si>
-  <si>
-    <t>da743702-fefc-41a8-a5e7-f6e737303f49</t>
-  </si>
-  <si>
-    <t>23f8bc9f-7395-4561-bb43-b660eec7391c</t>
-  </si>
-  <si>
-    <t>e2b05760-42c2-4677-ba94-df95d960c42a</t>
-  </si>
-  <si>
-    <t>7024d39c-59dd-40e4-b47a-b8956348d240</t>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/</t>
   </si>
   <si>
     <t>利用条件</t>
   </si>
   <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/4bdb27bb-a217-4ed4-8710-3c01c007b26c</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/97e28457-a2b7-40ec-87d0-f976de8fe10a</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/9cbddbf1-73e1-4d14-a5be-236efa6784e0</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/25825360-d6e9-4b5a-8d29-8229e6fb7848</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/8cde7a41-3043-4bb8-a9ab-d89a63d74302</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/2c0edd09-f4f7-400a-9aa9-506f6a020281</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/1a8618bf-1552-41a1-ac31-14b55adaa85d</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/29a3ebd1-f59b-46d8-8bfe-5e5ab04fddd9</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/cd7d22a0-dde1-4372-bf51-2aede101d8ea</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/da743702-fefc-41a8-a5e7-f6e737303f49</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/23f8bc9f-7395-4561-bb43-b660eec7391c</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/e2b05760-42c2-4677-ba94-df95d960c42a</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/7024d39c-59dd-40e4-b47a-b8956348d240</t>
-  </si>
-  <si>
-    <t>機械可読データ</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71951</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71952</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71953</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71954</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71955</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71956</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71957</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71958</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71959</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71960</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71961</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71962</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/71963</t>
-  </si>
-  <si>
-    <t>所蔵</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 General Library in the University of Tokyo, JAPAN</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/</t>
   </si>
 </sst>
 </file>
@@ -667,10 +667,10 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>45</v>
@@ -679,19 +679,19 @@
         <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
         <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
         <v>94</v>
@@ -707,29 +707,29 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>95</v>
@@ -745,29 +745,29 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" t="s">
-        <v>92</v>
+      <c r="K3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>95</v>
@@ -783,29 +783,29 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>95</v>
@@ -821,29 +821,29 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>95</v>
@@ -859,29 +859,29 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>95</v>
@@ -897,29 +897,29 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>95</v>
@@ -935,29 +935,29 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>95</v>
@@ -973,29 +973,29 @@
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>95</v>
@@ -1011,29 +1011,29 @@
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>95</v>
@@ -1049,29 +1049,29 @@
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>95</v>
@@ -1087,29 +1087,29 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>95</v>
@@ -1125,28 +1125,28 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>92</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1163,29 +1163,29 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" t="s">
-        <v>92</v>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>95</v>
@@ -1196,96 +1196,96 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="J2" r:id="rId5"/>
-    <hyperlink ref="M2" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3" location="rightToLeftDirection"/>
+    <hyperlink ref="K2" r:id="rId4"/>
+    <hyperlink ref="L2" r:id="rId5"/>
+    <hyperlink ref="M2" r:id="rId6"/>
     <hyperlink ref="N2" r:id="rId7"/>
-    <hyperlink ref="C3" r:id="rId8"/>
-    <hyperlink ref="D3" r:id="rId9"/>
-    <hyperlink ref="H3" r:id="rId10"/>
-    <hyperlink ref="I3" r:id="rId11"/>
-    <hyperlink ref="J3" r:id="rId12"/>
-    <hyperlink ref="M3" r:id="rId13" location="rightToLeftDirection"/>
+    <hyperlink ref="D3" r:id="rId8"/>
+    <hyperlink ref="E3" r:id="rId9"/>
+    <hyperlink ref="F3" r:id="rId10" location="rightToLeftDirection"/>
+    <hyperlink ref="K3" r:id="rId11"/>
+    <hyperlink ref="L3" r:id="rId12"/>
+    <hyperlink ref="M3" r:id="rId13"/>
     <hyperlink ref="N3" r:id="rId14"/>
-    <hyperlink ref="C4" r:id="rId15"/>
-    <hyperlink ref="D4" r:id="rId16"/>
-    <hyperlink ref="H4" r:id="rId17"/>
-    <hyperlink ref="I4" r:id="rId18"/>
-    <hyperlink ref="J4" r:id="rId19"/>
-    <hyperlink ref="M4" r:id="rId20" location="rightToLeftDirection"/>
+    <hyperlink ref="D4" r:id="rId15"/>
+    <hyperlink ref="E4" r:id="rId16"/>
+    <hyperlink ref="F4" r:id="rId17" location="rightToLeftDirection"/>
+    <hyperlink ref="K4" r:id="rId18"/>
+    <hyperlink ref="L4" r:id="rId19"/>
+    <hyperlink ref="M4" r:id="rId20"/>
     <hyperlink ref="N4" r:id="rId21"/>
-    <hyperlink ref="C5" r:id="rId22"/>
-    <hyperlink ref="D5" r:id="rId23"/>
-    <hyperlink ref="H5" r:id="rId24"/>
-    <hyperlink ref="I5" r:id="rId25"/>
-    <hyperlink ref="J5" r:id="rId26"/>
-    <hyperlink ref="M5" r:id="rId27" location="rightToLeftDirection"/>
+    <hyperlink ref="D5" r:id="rId22"/>
+    <hyperlink ref="E5" r:id="rId23"/>
+    <hyperlink ref="F5" r:id="rId24" location="rightToLeftDirection"/>
+    <hyperlink ref="K5" r:id="rId25"/>
+    <hyperlink ref="L5" r:id="rId26"/>
+    <hyperlink ref="M5" r:id="rId27"/>
     <hyperlink ref="N5" r:id="rId28"/>
-    <hyperlink ref="C6" r:id="rId29"/>
-    <hyperlink ref="D6" r:id="rId30"/>
-    <hyperlink ref="H6" r:id="rId31"/>
-    <hyperlink ref="I6" r:id="rId32"/>
-    <hyperlink ref="J6" r:id="rId33"/>
-    <hyperlink ref="M6" r:id="rId34" location="rightToLeftDirection"/>
+    <hyperlink ref="D6" r:id="rId29"/>
+    <hyperlink ref="E6" r:id="rId30"/>
+    <hyperlink ref="F6" r:id="rId31" location="rightToLeftDirection"/>
+    <hyperlink ref="K6" r:id="rId32"/>
+    <hyperlink ref="L6" r:id="rId33"/>
+    <hyperlink ref="M6" r:id="rId34"/>
     <hyperlink ref="N6" r:id="rId35"/>
-    <hyperlink ref="C7" r:id="rId36"/>
-    <hyperlink ref="D7" r:id="rId37"/>
-    <hyperlink ref="H7" r:id="rId38"/>
-    <hyperlink ref="I7" r:id="rId39"/>
-    <hyperlink ref="J7" r:id="rId40"/>
-    <hyperlink ref="M7" r:id="rId41" location="rightToLeftDirection"/>
+    <hyperlink ref="D7" r:id="rId36"/>
+    <hyperlink ref="E7" r:id="rId37"/>
+    <hyperlink ref="F7" r:id="rId38" location="rightToLeftDirection"/>
+    <hyperlink ref="K7" r:id="rId39"/>
+    <hyperlink ref="L7" r:id="rId40"/>
+    <hyperlink ref="M7" r:id="rId41"/>
     <hyperlink ref="N7" r:id="rId42"/>
-    <hyperlink ref="C8" r:id="rId43"/>
-    <hyperlink ref="D8" r:id="rId44"/>
-    <hyperlink ref="H8" r:id="rId45"/>
-    <hyperlink ref="I8" r:id="rId46"/>
-    <hyperlink ref="J8" r:id="rId47"/>
-    <hyperlink ref="M8" r:id="rId48" location="rightToLeftDirection"/>
+    <hyperlink ref="D8" r:id="rId43"/>
+    <hyperlink ref="E8" r:id="rId44"/>
+    <hyperlink ref="F8" r:id="rId45" location="rightToLeftDirection"/>
+    <hyperlink ref="K8" r:id="rId46"/>
+    <hyperlink ref="L8" r:id="rId47"/>
+    <hyperlink ref="M8" r:id="rId48"/>
     <hyperlink ref="N8" r:id="rId49"/>
-    <hyperlink ref="C9" r:id="rId50"/>
-    <hyperlink ref="D9" r:id="rId51"/>
-    <hyperlink ref="H9" r:id="rId52"/>
-    <hyperlink ref="I9" r:id="rId53"/>
-    <hyperlink ref="J9" r:id="rId54"/>
-    <hyperlink ref="M9" r:id="rId55" location="rightToLeftDirection"/>
+    <hyperlink ref="D9" r:id="rId50"/>
+    <hyperlink ref="E9" r:id="rId51"/>
+    <hyperlink ref="F9" r:id="rId52" location="rightToLeftDirection"/>
+    <hyperlink ref="K9" r:id="rId53"/>
+    <hyperlink ref="L9" r:id="rId54"/>
+    <hyperlink ref="M9" r:id="rId55"/>
     <hyperlink ref="N9" r:id="rId56"/>
-    <hyperlink ref="C10" r:id="rId57"/>
-    <hyperlink ref="D10" r:id="rId58"/>
-    <hyperlink ref="H10" r:id="rId59"/>
-    <hyperlink ref="I10" r:id="rId60"/>
-    <hyperlink ref="J10" r:id="rId61"/>
-    <hyperlink ref="M10" r:id="rId62" location="rightToLeftDirection"/>
+    <hyperlink ref="D10" r:id="rId57"/>
+    <hyperlink ref="E10" r:id="rId58"/>
+    <hyperlink ref="F10" r:id="rId59" location="rightToLeftDirection"/>
+    <hyperlink ref="K10" r:id="rId60"/>
+    <hyperlink ref="L10" r:id="rId61"/>
+    <hyperlink ref="M10" r:id="rId62"/>
     <hyperlink ref="N10" r:id="rId63"/>
-    <hyperlink ref="C11" r:id="rId64"/>
-    <hyperlink ref="D11" r:id="rId65"/>
-    <hyperlink ref="H11" r:id="rId66"/>
-    <hyperlink ref="I11" r:id="rId67"/>
-    <hyperlink ref="J11" r:id="rId68"/>
-    <hyperlink ref="M11" r:id="rId69" location="rightToLeftDirection"/>
+    <hyperlink ref="D11" r:id="rId64"/>
+    <hyperlink ref="E11" r:id="rId65"/>
+    <hyperlink ref="F11" r:id="rId66" location="rightToLeftDirection"/>
+    <hyperlink ref="K11" r:id="rId67"/>
+    <hyperlink ref="L11" r:id="rId68"/>
+    <hyperlink ref="M11" r:id="rId69"/>
     <hyperlink ref="N11" r:id="rId70"/>
-    <hyperlink ref="C12" r:id="rId71"/>
-    <hyperlink ref="D12" r:id="rId72"/>
-    <hyperlink ref="H12" r:id="rId73"/>
-    <hyperlink ref="I12" r:id="rId74"/>
-    <hyperlink ref="J12" r:id="rId75"/>
-    <hyperlink ref="M12" r:id="rId76" location="rightToLeftDirection"/>
+    <hyperlink ref="D12" r:id="rId71"/>
+    <hyperlink ref="E12" r:id="rId72"/>
+    <hyperlink ref="F12" r:id="rId73" location="rightToLeftDirection"/>
+    <hyperlink ref="K12" r:id="rId74"/>
+    <hyperlink ref="L12" r:id="rId75"/>
+    <hyperlink ref="M12" r:id="rId76"/>
     <hyperlink ref="N12" r:id="rId77"/>
-    <hyperlink ref="C13" r:id="rId78"/>
-    <hyperlink ref="D13" r:id="rId79"/>
-    <hyperlink ref="H13" r:id="rId80"/>
-    <hyperlink ref="I13" r:id="rId81"/>
-    <hyperlink ref="J13" r:id="rId82"/>
-    <hyperlink ref="M13" r:id="rId83" location="rightToLeftDirection"/>
+    <hyperlink ref="D13" r:id="rId78"/>
+    <hyperlink ref="E13" r:id="rId79"/>
+    <hyperlink ref="F13" r:id="rId80" location="rightToLeftDirection"/>
+    <hyperlink ref="K13" r:id="rId81"/>
+    <hyperlink ref="L13" r:id="rId82"/>
+    <hyperlink ref="M13" r:id="rId83"/>
     <hyperlink ref="N13" r:id="rId84"/>
-    <hyperlink ref="C14" r:id="rId85"/>
-    <hyperlink ref="D14" r:id="rId86"/>
-    <hyperlink ref="H14" r:id="rId87"/>
-    <hyperlink ref="I14" r:id="rId88"/>
-    <hyperlink ref="J14" r:id="rId89"/>
-    <hyperlink ref="M14" r:id="rId90" location="rightToLeftDirection"/>
+    <hyperlink ref="D14" r:id="rId85"/>
+    <hyperlink ref="E14" r:id="rId86"/>
+    <hyperlink ref="F14" r:id="rId87" location="rightToLeftDirection"/>
+    <hyperlink ref="K14" r:id="rId88"/>
+    <hyperlink ref="L14" r:id="rId89"/>
+    <hyperlink ref="M14" r:id="rId90"/>
     <hyperlink ref="N14" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/collections/shizen/metadata/data.xlsx
+++ b/docs/collections/shizen/metadata/data.xlsx
@@ -151,7 +151,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/shizen/document/4bdb27bb-a217-4ed4-8710-3c01c007b26c</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif-img/72048/full/200,151/0/default.jpg</t>
